--- a/testdata/example.xlsx
+++ b/testdata/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clgeng/github/strap/excel-to-fhir/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clgeng/github/strap/excel-to-fhir/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EED154-9D23-A045-8566-F98E1878EEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABF44DD-0484-1846-B091-717FB888CFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{19EE9356-4A1B-BC4B-9204-784E3119BE99}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{19EE9356-4A1B-BC4B-9204-784E3119BE99}"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>LOINC_code</t>
   </si>
@@ -58,13 +58,7 @@
     <t>SNOMED_display</t>
   </si>
   <si>
-    <t>S001</t>
-  </si>
-  <si>
     <t>S002</t>
-  </si>
-  <si>
-    <t>L001</t>
   </si>
   <si>
     <t>L002</t>
@@ -312,9 +306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -352,7 +346,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -458,7 +452,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -600,7 +594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F1FA94-CD3A-C24A-831B-8E66C0BEE85F}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="256" zoomScaleNormal="256" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView zoomScale="177" zoomScaleNormal="256" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -628,7 +622,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -637,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -646,53 +640,53 @@
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62483C57-9F9E-8A4C-A6C7-7BCA71AAA9DE}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -727,45 +721,45 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -789,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9DDF0D-BF02-C64D-B92A-3AA80EB17025}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="207" zoomScaleNormal="207" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -802,23 +796,23 @@
   <sheetData>
     <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -826,55 +820,55 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -882,7 +876,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
